--- a/daily-catalog/InventoryWB.xlsx
+++ b/daily-catalog/InventoryWB.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ItemNumber</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>Mustard Oil</t>
+  </si>
+  <si>
+    <t>Soyabean</t>
+  </si>
+  <si>
+    <t>500g</t>
+  </si>
+  <si>
+    <t>Nutrela Soya Chunk</t>
   </si>
 </sst>
 </file>
@@ -380,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
@@ -436,6 +445,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
